--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5068238299775603</v>
+        <v>0.5918383337234023</v>
       </c>
       <c r="D2">
-        <v>0.8424509087810907</v>
+        <v>0.8732392521185299</v>
       </c>
       <c r="E2">
-        <v>0.8093871222781948</v>
+        <v>0.8585639443434183</v>
       </c>
       <c r="F2">
-        <v>0.1891373413027211</v>
+        <v>0.2375827175323819</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5068238299775603</v>
+        <v>0.5918383337234023</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.676393519149453</v>
+        <v>0.6549773821717224</v>
       </c>
       <c r="E3">
-        <v>0.2523328682720247</v>
+        <v>0.2804859867908815</v>
       </c>
       <c r="F3">
-        <v>0.5325963008993986</v>
+        <v>0.5583637151360441</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8424509087810907</v>
+        <v>0.8732392521185299</v>
       </c>
       <c r="C4">
-        <v>0.676393519149453</v>
+        <v>0.6549773821717224</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.645533766966023</v>
+        <v>0.6828202369083396</v>
       </c>
       <c r="F4">
-        <v>0.3854417319756775</v>
+        <v>0.3832568638751579</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8093871222781948</v>
+        <v>0.8585639443434183</v>
       </c>
       <c r="C5">
-        <v>0.2523328682720247</v>
+        <v>0.2804859867908815</v>
       </c>
       <c r="D5">
-        <v>0.645533766966023</v>
+        <v>0.6828202369083396</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.09982878169195808</v>
+        <v>0.1719394901564206</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1891373413027211</v>
+        <v>0.2375827175323819</v>
       </c>
       <c r="C6">
-        <v>0.5325963008993986</v>
+        <v>0.5583637151360441</v>
       </c>
       <c r="D6">
-        <v>0.3854417319756775</v>
+        <v>0.3832568638751579</v>
       </c>
       <c r="E6">
-        <v>0.09982878169195808</v>
+        <v>0.1719394901564206</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.6642908305524517</v>
+        <v>-0.5487248654433636</v>
       </c>
       <c r="D2">
-        <v>-0.1988673284520628</v>
+        <v>-0.1624935533370932</v>
       </c>
       <c r="E2">
-        <v>0.2413500238327465</v>
+        <v>0.1815165397954219</v>
       </c>
       <c r="F2">
-        <v>-1.315005193131547</v>
+        <v>-1.233819633964347</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6642908305524517</v>
+        <v>0.5487248654433636</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4176454281575977</v>
+        <v>0.4565784363014768</v>
       </c>
       <c r="E3">
-        <v>1.146083398239048</v>
+        <v>1.122613201377622</v>
       </c>
       <c r="F3">
-        <v>-0.6245004635703905</v>
+        <v>-0.5995831086647904</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1988673284520628</v>
+        <v>0.1624935533370932</v>
       </c>
       <c r="C4">
-        <v>-0.4176454281575977</v>
+        <v>-0.4565784363014768</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4602665569154454</v>
+        <v>0.4172543568248846</v>
       </c>
       <c r="F4">
-        <v>-0.8687083260152259</v>
+        <v>-0.9001624317704398</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.2413500238327465</v>
+        <v>-0.1815165397954219</v>
       </c>
       <c r="C5">
-        <v>-1.146083398239048</v>
+        <v>-1.122613201377622</v>
       </c>
       <c r="D5">
-        <v>-0.4602665569154454</v>
+        <v>-0.4172543568248846</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.648875569180963</v>
+        <v>-1.439691460963566</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.315005193131547</v>
+        <v>1.233819633964347</v>
       </c>
       <c r="C6">
-        <v>0.6245004635703905</v>
+        <v>0.5995831086647904</v>
       </c>
       <c r="D6">
-        <v>0.8687083260152259</v>
+        <v>0.9001624317704398</v>
       </c>
       <c r="E6">
-        <v>1.648875569180963</v>
+        <v>1.439691460963566</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5918383337234023</v>
+        <v>0.3129585950974114</v>
       </c>
       <c r="D2">
-        <v>0.8732392521185299</v>
+        <v>0.6999013256618878</v>
       </c>
       <c r="E2">
-        <v>0.8585639443434183</v>
+        <v>0.6243391649669865</v>
       </c>
       <c r="F2">
-        <v>0.2375827175323819</v>
+        <v>0.6359745293057264</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5918383337234023</v>
+        <v>0.3129585950974114</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6549773821717224</v>
+        <v>0.5730542484302319</v>
       </c>
       <c r="E3">
-        <v>0.2804859867908815</v>
+        <v>0.3384303208410928</v>
       </c>
       <c r="F3">
-        <v>0.5583637151360441</v>
+        <v>0.1766145836566688</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8732392521185299</v>
+        <v>0.6999013256618878</v>
       </c>
       <c r="C4">
-        <v>0.6549773821717224</v>
+        <v>0.5730542484302319</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6828202369083396</v>
+        <v>0.3687537734906177</v>
       </c>
       <c r="F4">
-        <v>0.3832568638751579</v>
+        <v>0.4472708875022213</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8585639443434183</v>
+        <v>0.6243391649669865</v>
       </c>
       <c r="C5">
-        <v>0.2804859867908815</v>
+        <v>0.3384303208410928</v>
       </c>
       <c r="D5">
-        <v>0.6828202369083396</v>
+        <v>0.3687537734906177</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1719394901564206</v>
+        <v>0.7484550816643569</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2375827175323819</v>
+        <v>0.6359745293057264</v>
       </c>
       <c r="C6">
-        <v>0.5583637151360441</v>
+        <v>0.1766145836566688</v>
       </c>
       <c r="D6">
-        <v>0.3832568638751579</v>
+        <v>0.4472708875022213</v>
       </c>
       <c r="E6">
-        <v>0.1719394901564206</v>
+        <v>0.7484550816643569</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.5487248654433636</v>
+        <v>1.032711795542522</v>
       </c>
       <c r="D2">
-        <v>-0.1624935533370932</v>
+        <v>0.390528975046705</v>
       </c>
       <c r="E2">
-        <v>0.1815165397954219</v>
+        <v>-0.4966832690945657</v>
       </c>
       <c r="F2">
-        <v>-1.233819633964347</v>
+        <v>-0.479986861355411</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5487248654433636</v>
+        <v>-1.032711795542522</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4565784363014768</v>
+        <v>-0.5721001408124261</v>
       </c>
       <c r="E3">
-        <v>1.122613201377622</v>
+        <v>-0.9785725125768201</v>
       </c>
       <c r="F3">
-        <v>-0.5995831086647904</v>
+        <v>-1.396098545908766</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1624935533370932</v>
+        <v>-0.390528975046705</v>
       </c>
       <c r="C4">
-        <v>-0.4565784363014768</v>
+        <v>0.5721001408124261</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4172543568248846</v>
+        <v>-0.9176491709727018</v>
       </c>
       <c r="F4">
-        <v>-0.9001624317704398</v>
+        <v>-0.7738243818224979</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1815165397954219</v>
+        <v>0.4966832690945657</v>
       </c>
       <c r="C5">
-        <v>-1.122613201377622</v>
+        <v>0.9785725125768201</v>
       </c>
       <c r="D5">
-        <v>-0.4172543568248846</v>
+        <v>0.9176491709727018</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.439691460963566</v>
+        <v>0.3247273072818045</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.233819633964347</v>
+        <v>0.479986861355411</v>
       </c>
       <c r="C6">
-        <v>0.5995831086647904</v>
+        <v>1.396098545908766</v>
       </c>
       <c r="D6">
-        <v>0.9001624317704398</v>
+        <v>0.7738243818224979</v>
       </c>
       <c r="E6">
-        <v>1.439691460963566</v>
+        <v>-0.3247273072818045</v>
       </c>
       <c r="F6">
         <v>0</v>
